--- a/backend/prodata/mockdata.xlsx
+++ b/backend/prodata/mockdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\vue\DataManage\backend\prodata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\diagSystem\backend\prodata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDA396A-6F48-464B-AA97-1FC1948BCCBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1522752C-24C5-4265-95BB-C06632EE995A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="1068" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="6420" windowWidth="37365" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patientBasicInfo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="tumorMarkerInfo" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="285">
   <si>
     <t>patientID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,11 +1011,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tumorClass</t>
+    <t>有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有</t>
+    <t>导管内乳头状粘液性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>segres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,20 +1365,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J43"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1391,10 +1409,22 @@
         <v>278</v>
       </c>
       <c r="J1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="K1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1412,16 +1442,16 @@
       </c>
       <c r="F2">
         <f ca="1">ROUND(RAND()*(50-16),2)</f>
-        <v>27.6</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" t="s">
         <v>280</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1439,16 +1469,16 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F43" ca="1" si="0">ROUND(RAND()*(50-16),2)</f>
-        <v>0.93</v>
+        <v>6.87</v>
       </c>
       <c r="I3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1466,16 +1496,16 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>6.25</v>
       </c>
       <c r="I4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1493,16 +1523,16 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.04</v>
+        <v>22.8</v>
       </c>
       <c r="I5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1520,16 +1550,16 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>23.44</v>
+        <v>26.29</v>
       </c>
       <c r="I6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1547,16 +1577,16 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>27.17</v>
+        <v>24.49</v>
       </c>
       <c r="I7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1574,16 +1604,16 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>16.010000000000002</v>
+        <v>14.9</v>
       </c>
       <c r="I8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1601,16 +1631,16 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>17.61</v>
+        <v>9.48</v>
       </c>
       <c r="I9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1628,16 +1658,16 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.18</v>
+        <v>1.52</v>
       </c>
       <c r="I10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1655,16 +1685,16 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.74</v>
+        <v>31.32</v>
       </c>
       <c r="I11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1682,16 +1712,16 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>30.63</v>
+        <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1709,16 +1739,16 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.74</v>
+        <v>16.82</v>
       </c>
       <c r="I13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1736,16 +1766,16 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.78</v>
+        <v>20.12</v>
       </c>
       <c r="I14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1763,16 +1793,16 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>27.35</v>
+        <v>5.48</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1790,16 +1820,16 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>22.85</v>
+        <v>23.83</v>
       </c>
       <c r="I16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1817,16 +1847,16 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>6.66</v>
+        <v>31.18</v>
       </c>
       <c r="I17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1844,16 +1874,16 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>25.5</v>
+        <v>18.55</v>
       </c>
       <c r="I18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1871,16 +1901,16 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>28.84</v>
+        <v>9.6</v>
       </c>
       <c r="I19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1898,16 +1928,16 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>25.96</v>
+        <v>26.22</v>
       </c>
       <c r="I20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1925,16 +1955,16 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>30.77</v>
+        <v>24.56</v>
       </c>
       <c r="I21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1952,16 +1982,16 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>11.93</v>
       </c>
       <c r="I22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1979,16 +2009,16 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>16.36</v>
+        <v>25.77</v>
       </c>
       <c r="I23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2006,16 +2036,16 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>33.4</v>
+        <v>23.93</v>
       </c>
       <c r="I24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J24" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2033,16 +2063,16 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>23.09</v>
+        <v>10.08</v>
       </c>
       <c r="I25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J25" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2060,16 +2090,16 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>27.51</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="I26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2087,16 +2117,16 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>15.31</v>
+        <v>3.08</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2114,16 +2144,16 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>30.4</v>
+        <v>1.62</v>
       </c>
       <c r="I28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J28" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2141,16 +2171,16 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>20.7</v>
+        <v>32.07</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2168,16 +2198,16 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>6.57</v>
+        <v>14.2</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2195,16 +2225,16 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>20.23</v>
+        <v>16.88</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -2222,16 +2252,16 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>15.19</v>
+        <v>30.16</v>
       </c>
       <c r="I32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2249,16 +2279,16 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>3.54</v>
+        <v>17.59</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -2276,16 +2306,16 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>11.13</v>
+        <v>7.6</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -2303,16 +2333,16 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>7.77</v>
+        <v>18.41</v>
       </c>
       <c r="I35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -2330,16 +2360,16 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="0"/>
-        <v>1.37</v>
+        <v>27.42</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2357,16 +2387,16 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="0"/>
-        <v>14.33</v>
+        <v>8.11</v>
       </c>
       <c r="I37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -2384,16 +2414,16 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="0"/>
-        <v>15.86</v>
+        <v>15.83</v>
       </c>
       <c r="I38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J38" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2411,16 +2441,16 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="0"/>
-        <v>23.3</v>
+        <v>22.51</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -2438,16 +2468,16 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="0"/>
-        <v>31.68</v>
+        <v>11.82</v>
       </c>
       <c r="I40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J40" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2465,16 +2495,16 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>26.5</v>
       </c>
       <c r="I41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J41" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -2492,16 +2522,16 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="0"/>
-        <v>27.21</v>
+        <v>30.43</v>
       </c>
       <c r="I42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J42" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -2519,10 +2549,10 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="0"/>
-        <v>1.42</v>
+        <v>3.37</v>
       </c>
       <c r="I43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J43" t="s">
         <v>204</v>
@@ -2543,19 +2573,19 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2622,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2654,7 +2684,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2686,7 +2716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2718,7 +2748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2750,7 +2780,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2782,7 +2812,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2814,7 +2844,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2846,7 +2876,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2878,7 +2908,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2910,7 +2940,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2942,7 +2972,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2974,7 +3004,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3006,7 +3036,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3038,7 +3068,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -3070,7 +3100,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3102,7 +3132,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3134,7 +3164,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -3166,7 +3196,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3198,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -3230,7 +3260,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3262,7 +3292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3294,7 +3324,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3326,7 +3356,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3358,7 +3388,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -3390,7 +3420,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -3422,7 +3452,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -3454,7 +3484,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -3486,7 +3516,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -3518,7 +3548,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3550,7 +3580,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -3582,7 +3612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -3614,7 +3644,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -3646,7 +3676,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -3678,7 +3708,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -3710,7 +3740,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -3742,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -3774,7 +3804,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -3806,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -3838,7 +3868,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3870,7 +3900,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -3902,7 +3932,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -3934,7 +3964,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -3966,7 +3996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -3998,7 +4028,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -4030,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -4062,7 +4092,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -4094,7 +4124,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -4126,7 +4156,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -4158,7 +4188,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -4190,7 +4220,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -4222,7 +4252,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -4269,14 +4299,14 @@
       <selection activeCell="K43" sqref="K2:K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4314,7 +4344,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4346,7 +4376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4378,7 +4408,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4410,7 +4440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4442,7 +4472,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4474,7 +4504,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4506,7 +4536,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4538,7 +4568,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4570,7 +4600,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -4602,7 +4632,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4634,7 +4664,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -4666,7 +4696,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4698,7 +4728,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -4730,7 +4760,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4762,7 +4792,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4794,7 +4824,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4826,7 +4856,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -4858,7 +4888,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -4890,7 +4920,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -4922,7 +4952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -4954,7 +4984,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -4986,7 +5016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5018,7 +5048,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -5050,7 +5080,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -5082,7 +5112,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -5114,7 +5144,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -5146,7 +5176,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -5178,7 +5208,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -5210,7 +5240,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -5242,7 +5272,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -5274,7 +5304,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -5306,7 +5336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -5338,7 +5368,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -5370,7 +5400,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -5402,7 +5432,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -5434,7 +5464,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -5466,7 +5496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -5498,7 +5528,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -5530,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -5562,7 +5592,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -5594,7 +5624,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -5626,7 +5656,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -5672,14 +5702,14 @@
       <selection activeCell="H2" sqref="H2:H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5705,7 +5735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -5720,22 +5750,22 @@
       </c>
       <c r="E2" s="1">
         <f ca="1">E3</f>
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F2">
         <f ca="1">ROUND(RAND()*(2-0),2)</f>
-        <v>0.12</v>
+        <v>1.35</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*(5-0),2)</f>
-        <v>0.36</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*(20-0),2)</f>
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -5750,22 +5780,22 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E43" ca="1" si="0">ROUND(RAND()*(3-0),2)</f>
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F43" ca="1" si="1">ROUND(RAND()*(2-0),2)</f>
-        <v>1.92</v>
+        <v>0.96</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G43" ca="1" si="2">ROUND(RAND()*(5-0),2)</f>
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H43" ca="1" si="3">ROUND(RAND()*(20-0),2)</f>
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5780,22 +5810,22 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.02</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5299999999999998</v>
+        <v>4.74</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>16.420000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5810,22 +5840,22 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75</v>
+        <v>1.54</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.59</v>
+        <v>0.98</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45</v>
+        <v>2.81</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -5840,22 +5870,22 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.04</v>
+        <v>2.77</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.03</v>
+        <v>0.89</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41</v>
+        <v>4.43</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -5870,22 +5900,22 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.63</v>
+        <v>0.31</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1399999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.31</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5900,22 +5930,22 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>4.76</v>
+        <v>0.4</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5930,22 +5960,22 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.64</v>
+        <v>2.52</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>1.22</v>
+        <v>3.21</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>13.11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -5960,22 +5990,22 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82</v>
+        <v>2.77</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>3.61</v>
+        <v>3.18</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>9.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>13.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -5990,22 +6020,22 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>1.49</v>
+        <v>2.92</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -6020,22 +6050,22 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76</v>
+        <v>2.75</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.99</v>
+        <v>1.31</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>1.34</v>
+        <v>4.28</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -6050,22 +6080,22 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.86</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>2.77</v>
+        <v>1.49</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2200000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -6080,22 +6110,22 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1599999999999999</v>
+        <v>2.57</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1299999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2999999999999998</v>
+        <v>4.91</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3800000000000008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6110,22 +6140,22 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.75</v>
+        <v>1.34</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3</v>
+        <v>1.77</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67</v>
+        <v>0.15</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>16.690000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -6140,22 +6170,22 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.02</v>
+        <v>1.69</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>2.89</v>
+        <v>0.99</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -6170,22 +6200,22 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.03</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -6200,22 +6230,22 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62</v>
+        <v>2.58</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>3.94</v>
+        <v>1.21</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
-        <v>15.58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>16.739999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -6230,22 +6260,22 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.36</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94</v>
+        <v>1.35</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4.63</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -6260,22 +6290,22 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.32</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66</v>
+        <v>1.38</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -6290,7 +6320,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>1.7</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
@@ -6298,14 +6328,14 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>1.46</v>
+        <v>4.59</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -6320,22 +6350,22 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.76</v>
+        <v>0.91</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>0.51</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>11.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -6350,22 +6380,22 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.11</v>
+        <v>2.79</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.22</v>
+        <v>0.71</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>2.98</v>
+        <v>0.59</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>6.44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -6380,22 +6410,22 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>0.45</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>3.73</v>
+        <v>2.89</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>15.46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -6410,22 +6440,22 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.29</v>
+        <v>0.09</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>3.78</v>
+        <v>0.75</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>12.64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -6440,22 +6470,22 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>1.51</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>1.36</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>4.93</v>
+        <v>1.18</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -6470,22 +6500,22 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.41</v>
+        <v>0.82</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>1.94</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0499999999999998</v>
+        <v>4.58</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -6500,22 +6530,22 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99</v>
+        <v>0.71</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1500000000000004</v>
+        <v>3.67</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>13.61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -6530,22 +6560,22 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59</v>
+        <v>2.94</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95</v>
+        <v>1.86</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>6.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -6560,22 +6590,22 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.17</v>
+        <v>0.37</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>1.98</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>2.74</v>
+        <v>3.48</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>19.54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -6590,22 +6620,22 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>3.45</v>
+        <v>0.75</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -6620,22 +6650,22 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5099999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>1.26</v>
+        <v>0.01</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6500000000000004</v>
+        <v>3.89</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>12.24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -6650,22 +6680,22 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97</v>
+        <v>1.92</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9</v>
+        <v>1.84</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="3"/>
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -6680,22 +6710,22 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.54</v>
+        <v>2.67</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>1.75</v>
+        <v>0.02</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>1.77</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="3"/>
-        <v>10.46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -6710,22 +6740,22 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.57</v>
+        <v>0.95</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>1.33</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>1.63</v>
+        <v>2.09</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="3"/>
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -6740,22 +6770,22 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.39</v>
+        <v>2.5</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57999999999999996</v>
+        <v>1.03</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>4.95</v>
+        <v>2.97</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="3"/>
-        <v>11.54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>17.670000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -6770,22 +6800,22 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
+        <v>0.79</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>1.27</v>
+        <v>0.77</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>4.07</v>
+        <v>2.09</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="3"/>
-        <v>10.72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -6800,22 +6830,22 @@
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1800000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="3"/>
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -6830,22 +6860,22 @@
       </c>
       <c r="E39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>1.31</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6100000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="3"/>
-        <v>18.940000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -6860,22 +6890,22 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.59</v>
+        <v>0.71</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>1.83</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92</v>
+        <v>0.71</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="3"/>
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -6890,22 +6920,22 @@
       </c>
       <c r="E41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.08</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89</v>
+        <v>1.57</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.94</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -6924,18 +6954,18 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -6950,19 +6980,19 @@
       </c>
       <c r="E43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4300000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.02</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>8.85</v>
       </c>
     </row>
   </sheetData>
@@ -6980,7 +7010,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
